--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
